--- a/cris_demo/cisco_1_vid.xlsx
+++ b/cris_demo/cisco_1_vid.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">VideoID</t>
   </si>
@@ -31,20 +31,42 @@
     <t xml:space="preserve">Transcribed</t>
   </si>
   <si>
+    <t xml:space="preserve">WER Cris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2 Time Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS2 wer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1 Time Taken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DS1 WER</t>
+  </si>
+  <si>
     <t xml:space="preserve">S15WtJuyBRo</t>
   </si>
   <si>
     <t xml:space="preserve">https://youtu.be/S15WtJuyBRo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.5min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.62min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -71,13 +93,6 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -143,7 +158,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -164,18 +179,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="58.0459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.0204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.75"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4897959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -188,17 +208,47 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.4806</v>
       </c>
     </row>
   </sheetData>
